--- a/BBDC_inputs_bull.xlsx
+++ b/BBDC_inputs_bull.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hvideira/Desktop/olavo-tcc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olavo\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2702C2E7-9CCF-D94A-9EB0-AFBA33FA2908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE101769-88D9-46C5-8AF2-224BA9B5A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{5D32CBC5-90AC-2048-835B-11A76CC1722C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{6B5F113F-83A8-46AD-A5EF-C4F7E38062A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
-    <t>ATIVO</t>
+    <t/>
   </si>
   <si>
     <t>ATT_NAME</t>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,16 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11870333-0CFE-7949-9172-429B72F79A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB849706-5FF3-439F-AB5B-E70F05F836D7}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -502,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>26.0052517167457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17.81122021073049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -516,7 +516,7 @@
         <v>10608.093000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>167588.98798005132</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
         <v>48866.544864840514</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>36113.022705367155</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>12639.557946878504</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>12639.557946878504</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
         <v>223221.21170661226</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -662,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>10.354365817848375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.1481274636968992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -673,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>29.70572691476892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17.81122021073049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -684,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>7.3667355023573107</v>
+        <v>7.2887113573703308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>